--- a/assets/disciplinas/LOM3205.xlsx
+++ b/assets/disciplinas/LOM3205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,75 +70,55 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Estudo formal da teoria dos campos eletromagnéticos independentes do tempo ou para situações quase-estáticas. Teoria das ondas eletromagnéticas.</t>
+    <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>5840726 - Cristina Bormio Nunes</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>1341653 - Maria José Ramos Sandim</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Eletrostática. Magnetostática. Campos variantes no tempo. Equações de Maxwell. Ondas eletromagnéticas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Eletrostática (Campo Eletrostático; Potencial Elétrico; Trabalho e Energia em Eletrostática)  Técnicas Especiais (Equações de Laplace; Método das imagens; Separação de variáveis e Expansão em Multipolos) Campo Elétrico da Matéria (Polarização elétrica; Campo de objeto polarizado; cargas ligadas; deslocamento elétrico; Dielétricos lineares) Magnetostática (Lei de Lorentz; Lei de Biot-Savart; Lei de Ampére; Potencial Vetor Magnético) Campo Magnético na Matéria (Magnetização; Campos de objeto magnetizado; Campo auxiliar H; Meios Lineares e não lineares) Eletrodinâmica (Força eletromotriz; Indução eletromagnética; Equações de Maxwell; Leis de conservação) Ondas eletromagnéticas (Propagação no vácuo e na matéria; Reflexão e transmissão) ou Equação de ondas (Planas, esféricas e cilíndricas) e condições de contorno (interfaces)</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas e  exercícios comentados</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média final calculada pelas notas de 2 provas (P1 e P2), seguindo os pesos MF=(P1+2*P2)/3, ou seja, peso 1 para a P1 e peso 2 para a P2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>CHENG,DAVID K.Field and Wave Electromagnetics. Addison Weslwy Publishing Company.1989.
-SLATER, J.C.; FRANK, N.H. Electromagnetism. McGraw-Hill, New York, 1974.
-MARION, J.B. Classical Electromagnetic Radiation. Academic Press, New York, 1965.
-BOHN, E.V. Introduction to electromagnetic fields and waves. Addison Wesley, 1968. 
-REITZ, J.R.; MILFORD, F.J. Foundations of eletromagnetic theory. Addison Wesley, Publishing, Co. 1970. GRIFFITHS, D.J. Introduction to Electrodynamics. Prentice Hall, New York. 1998. 
-RAMO, WHINNERY E VAN DUZER, Fields and Waves in Communication Electronics, Wiley.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -505,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,143 +605,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3205.xlsx
+++ b/assets/disciplinas/LOM3205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2019</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Formal study of the theory of time-independent electromagnetic fields or for near static situations. Electromagnetic waves theory.</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Electrostatics. Magnetostatic. Time-varying fields. Maxwell's equations. Electromagnetic waves</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Electrostatics (electrostatic field; electric potential; work and energy in electrostatics). Special techniques for solving the Laplace’s equation (method of images; separation of variables). Electric field in matter (electric polarization; polarized object field; bound charges; electric displacement; dielectrics (linear). Magnetostatics (Lorentz's law; Biot-Savart's law; Ampere's law; vector magnetic potential). Magnetic field in matter (magnetization; field of a magnetized object; auxiliary field H). Electrodynamics (electromotive force; electromagnetic induction; Maxwell's equations; law of conservation of charge). Electromagnetic waves (propagation in vacuum and in matter; reflection and transmission), plane wave equation and boundary conditions (interfaces). Electric dipole radiation.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -604,107 +613,125 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="120" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3205.xlsx
+++ b/assets/disciplinas/LOM3205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,34 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Estudo formal da teoria dos campos eletromagnéticos independentes do tempo ou para situações quase-estáticas. Teoria das ondas eletromagnéticas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Formal study of the theory of time-independent electromagnetic fields or for near static situations. Electromagnetic waves theory.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Formal study of the theory of time-independent electromagnetic fields or for near static situations. Electromagnetic waves theory.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
+  </si>
+  <si>
+    <t>1341653 - Maria José Ramos Sandim</t>
+  </si>
+  <si>
+    <t>1643715 - Paulo Atsushi Suzuki</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
+    <t>Eletrostática. Magnetostática. Campos variantes no tempo. Equações de Maxwell. Ondas eletromagnéticas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,7 +109,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1341653 - Maria José Ramos Sandim</t>
+    <t>Eletrostática (campo eletrostático; potencial elétrico; trabalho e energia em eletrostática).  Técnicas especiais para a resolução da equação de Laplace (método das imagens; separação de variáveis). Campo elétrico da matéria (polarização elétrica; campo de objeto polarizado; cargas ligadas; deslocamento elétrico; dielétricos (lineares). Magnetostática (Lei de Lorentz; Lei de Biot-Savart; Lei de Ampére; vetor potencial magnético).  Campo magnético na matéria (magnetização; campos de objeto magnetizado; campo auxiliar H; Eletrodinâmica (força eletromotriz; indução eletromagnética; equações de Maxwell; lei de conservação de carga). Ondas eletromagnéticas (propagação no vácuo e na matéria; reflexão e transmissão), equação de ondas (planas)  e condições de contorno (interfaces). Radiação de dipolo elétrico.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -109,25 +124,30 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1643715 - Paulo Atsushi Suzuki</t>
+    <t>Aulas expositivas e  exercícios comentados</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e  exercícios comentados</t>
+    <t>Média final calculada pelas notas de 2 provas (P1 e P2), seguindo os pesos MF=(P1+2*P2)/3, ou seja, peso 1 para a P1 e peso 2 para a P2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média final calculada pelas notas de 2 provas (P1 e P2), seguindo os pesos MF=(P1+2*P2)/3, ou seja, peso 1 para a P1 e peso 2 para a P2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>CHENG,DAVID K.Field and Wave Electromagnetics. Addison Weslwy Publishing Company.1989.
+SLATER, J.C.; FRANK, N.H. Electromagnetism. McGraw-Hill, New York, 1974.
+MARION, J.B. Classical Electromagnetic Radiation. Academic Press, New York, 1965.
+BOHN, E.V. Introduction to electromagnetic fields and waves. Addison Wesley, 1968. 
+REITZ, J.R.; MILFORD, F.J. Foundations of eletromagnetic theory. Addison Wesley, Publishing, Co. 1970. GRIFFITHS, D.J. Introduction to Electrodynamics. Prentice Hall, New York. 1998. 
+RAMO, WHINNERY E VAN DUZER, Fields and Waves in Communication Electronics, Wiley.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,13 +514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -620,118 +640,155 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
